--- a/Documenten PXL/Academische kalender 2021-20221.xlsx
+++ b/Documenten PXL/Academische kalender 2021-20221.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Desktop\Stage2021-2022\Documenten PXL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82B9A50-32B0-4B87-A0EE-84C80769726E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BED134-FC8C-4696-B9A1-163EFB895E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-2021" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2020-2021'!$A$1:$I$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -463,6 +464,347 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
+Implementeren feedback taallectoren en hogeschoolpromotor in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Eindwerk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+02/06: uploaden samenvatting talentenkrant </t>
+    </r>
+  </si>
+  <si>
+    <t>Voorbereiding Jury Bachelor Project</t>
+  </si>
+  <si>
+    <t>Juryexamen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Juryexamen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Dag van het </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>juryexamen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: Inleveren 1 exemplaar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Eindwerk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> aan het onthaal + 3 exemplaren </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Eindwerk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> meebrengen naar je </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>juryexamen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (onder voorbehoud Corona-maatregelen)
+Dag van het </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>juryexamen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Inleveren publicatie eindwerk + abstract + toelatingsformulier (taak 4C EPOS)</t>
+    </r>
+  </si>
+  <si>
+    <t>08/06: presentatie juryexamen uploaden naar Epos
+Feedback hogeschoolpromotor implementeren in presentatie juryexamen</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13/06: Inleveren definitieve versie </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Eindwerk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> op Epos
+17/06: Toestemming tot </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>juryexamen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + presentatie juryexamen posten op EPOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bijwerking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF6699"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>portfolio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+bijwerking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>onderzoek in eindwerk (Deel 2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+17/05: Voorlopige versie </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Eindwerk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> voor Hogeschoolpromotor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bijwerking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF6699"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>portfolio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+20/05: Feedback taalversie </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Eindwerk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+27/05: Feedback </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Eindwerk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Hogeschoolpromotor
+Implementeren feedback taallectoren in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Eindwerk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bijwerking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF6699"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>portfolio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+bijwerking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>onderzoek in eindwerk (Deel 2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
 02/05: Indienen taalversie </t>
     </r>
     <r>
@@ -500,348 +842,16 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-6/05: inleveren samenvatting PXL talentenkrant taak 6 op Epos</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">bijwerking </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF6699"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>portfolio</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-bijwerking </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>onderzoek in eindwerk (Deel 2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Implementeren feedback taallectoren en hogeschoolpromotor in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF33CCFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Eindwerk</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-02/06: uploaden samenvatting talentenkrant </t>
-    </r>
-  </si>
-  <si>
-    <t>Voorbereiding Jury Bachelor Project</t>
-  </si>
-  <si>
-    <t>Juryexamen</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Juryexamen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Dag van het </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>juryexamen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: Inleveren 1 exemplaar </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Eindwerk</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> aan het onthaal + 3 exemplaren </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Eindwerk</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> meebrengen naar je </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>juryexamen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (onder voorbehoud Corona-maatregelen)
-Dag van het </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>juryexamen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Inleveren publicatie eindwerk + abstract + toelatingsformulier (taak 4C EPOS)</t>
-    </r>
-  </si>
-  <si>
-    <t>08/06: presentatie juryexamen uploaden naar Epos
-Feedback hogeschoolpromotor implementeren in presentatie juryexamen</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">13/06: Inleveren definitieve versie </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Eindwerk</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> op Epos
-17/06: Toestemming tot </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>juryexamen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> + presentatie juryexamen posten op EPOS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">bijwerking </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF6699"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>portfolio</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-bijwerking </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>onderzoek in eindwerk (Deel 2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-17/05: Voorlopige versie </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF33CCFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Eindwerk</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> voor Hogeschoolpromotor</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">bijwerking </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF6699"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>portfolio</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-20/05: Feedback taalversie </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF33CCFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Eindwerk</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-27/05: Feedback </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF33CCFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Eindwerk</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Hogeschoolpromotor
-Implementeren feedback taallectoren in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF33CCFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Eindwerk</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6/05: inleveren samenvatting PXL talentenkrant taak 6 op Epos</t>
     </r>
   </si>
 </sst>
@@ -849,7 +859,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -976,6 +986,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1861,9 +1877,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1873,10 +1910,115 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1894,15 +2036,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1937,123 +2070,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2462,48 +2478,48 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="66" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
     <col min="9" max="9" width="91" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="82.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89" t="s">
+    <row r="1" spans="1:13" ht="82.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="89"/>
-      <c r="I1" s="90"/>
-    </row>
-    <row r="2" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="92"/>
-    </row>
-    <row r="3" spans="1:13" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="88"/>
+      <c r="I1" s="89"/>
+    </row>
+    <row r="2" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="91"/>
+    </row>
+    <row r="3" spans="1:13" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -2519,17 +2535,17 @@
       <c r="E3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="F3" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="99"/>
-      <c r="H3" s="100"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="12" t="s">
         <v>18</v>
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2537,58 +2553,58 @@
       <c r="E4" s="29">
         <v>44438</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="74" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="33">
         <v>44445</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="111"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="79"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="107"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="22">
         <v>44452</v>
       </c>
-      <c r="F6" s="112"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="114"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
       <c r="I6" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>1</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="107"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="28">
         <v>44459</v>
       </c>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2</v>
       </c>
@@ -2598,16 +2614,16 @@
       <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="108"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="31">
         <v>44466</v>
       </c>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
       <c r="I8" s="43"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>3</v>
       </c>
@@ -2617,18 +2633,18 @@
       <c r="C9" s="4">
         <v>2</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="92" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="32">
         <v>44473</v>
       </c>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>4</v>
       </c>
@@ -2638,16 +2654,16 @@
       <c r="C10" s="4">
         <v>3</v>
       </c>
-      <c r="D10" s="96"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="14">
         <v>44480</v>
       </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
       <c r="I10" s="44"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>5</v>
       </c>
@@ -2657,16 +2673,16 @@
       <c r="C11" s="4">
         <v>4</v>
       </c>
-      <c r="D11" s="96"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="15">
         <v>44487</v>
       </c>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>6</v>
       </c>
@@ -2676,17 +2692,17 @@
       <c r="C12" s="4">
         <v>5</v>
       </c>
-      <c r="D12" s="97"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="26">
         <v>44494</v>
       </c>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
       <c r="I12" s="43"/>
       <c r="J12" s="42"/>
     </row>
-    <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>7</v>
       </c>
@@ -2694,21 +2710,21 @@
       <c r="C13" s="4">
         <v>6</v>
       </c>
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="58" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="25">
         <v>44501</v>
       </c>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="41"/>
       <c r="J13" s="42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>8</v>
       </c>
@@ -2716,19 +2732,19 @@
         <v>7</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="116"/>
+      <c r="D14" s="59"/>
       <c r="E14" s="15">
         <v>44508</v>
       </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
       <c r="I14" s="43"/>
       <c r="J14" s="42" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>9</v>
       </c>
@@ -2738,17 +2754,17 @@
       <c r="C15" s="4">
         <v>7</v>
       </c>
-      <c r="D15" s="116"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="17">
         <v>44515</v>
       </c>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
       <c r="I15" s="23"/>
       <c r="J15" s="42"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>10</v>
       </c>
@@ -2758,16 +2774,16 @@
       <c r="C16" s="4">
         <v>8</v>
       </c>
-      <c r="D16" s="116"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="15">
         <v>44522</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>11</v>
       </c>
@@ -2777,16 +2793,16 @@
       <c r="C17" s="7">
         <v>9</v>
       </c>
-      <c r="D17" s="117"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="26">
         <v>44529</v>
       </c>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
       <c r="I17" s="43"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>12</v>
       </c>
@@ -2796,18 +2812,18 @@
       <c r="C18" s="7">
         <v>10</v>
       </c>
-      <c r="D18" s="93" t="s">
+      <c r="D18" s="61" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="27">
         <v>44536</v>
       </c>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
       <c r="I18" s="44"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>13</v>
       </c>
@@ -2817,46 +2833,46 @@
       <c r="C19" s="8">
         <v>11</v>
       </c>
-      <c r="D19" s="93"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="15">
         <v>44543</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
       <c r="I19" s="44"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>14</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="93"/>
+      <c r="D20" s="61"/>
       <c r="E20" s="15">
         <v>44550</v>
       </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="35">
         <v>15</v>
       </c>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="94"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="18">
         <v>44557</v>
       </c>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="24">
         <v>16</v>
       </c>
@@ -2866,87 +2882,87 @@
       <c r="C22" s="20">
         <v>12</v>
       </c>
-      <c r="D22" s="115" t="s">
+      <c r="D22" s="58" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="18">
         <v>44564</v>
       </c>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <v>17</v>
       </c>
       <c r="B23" s="34">
         <v>14</v>
       </c>
-      <c r="D23" s="116"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="15">
         <v>44571</v>
       </c>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>18</v>
       </c>
       <c r="B24" s="34">
         <v>15</v>
       </c>
-      <c r="D24" s="116"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="15">
         <v>44578</v>
       </c>
-      <c r="F24" s="118"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="120"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>19</v>
       </c>
       <c r="B25" s="34">
         <v>16</v>
       </c>
-      <c r="D25" s="116"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="15">
         <v>44585</v>
       </c>
-      <c r="F25" s="118"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="120"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="86"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="24">
         <v>20</v>
       </c>
       <c r="B26" s="34">
         <v>17</v>
       </c>
-      <c r="D26" s="116"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="26">
         <v>44592</v>
       </c>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
       <c r="I26" s="57"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>21</v>
       </c>
       <c r="B27" s="40"/>
-      <c r="D27" s="116" t="s">
+      <c r="D27" s="59" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="16">
@@ -2957,148 +2973,148 @@
       <c r="H27" s="39"/>
       <c r="I27" s="39"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>22</v>
       </c>
       <c r="B28" s="34">
         <v>18</v>
       </c>
-      <c r="D28" s="116"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="15">
         <v>44606</v>
       </c>
-      <c r="F28" s="64"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="66"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="108"/>
       <c r="I28" s="56"/>
     </row>
-    <row r="29" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>23</v>
       </c>
       <c r="B29" s="34">
         <v>19</v>
       </c>
-      <c r="D29" s="116"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="15">
         <v>44613</v>
       </c>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
       <c r="I29" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24">
         <v>24</v>
       </c>
       <c r="B30" s="34">
         <v>20</v>
       </c>
-      <c r="D30" s="117"/>
+      <c r="D30" s="60"/>
       <c r="E30" s="26">
         <v>44620</v>
       </c>
-      <c r="F30" s="67" t="s">
+      <c r="F30" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
       <c r="I30" s="43" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>25</v>
       </c>
       <c r="B31" s="34">
         <v>21</v>
       </c>
-      <c r="D31" s="93" t="s">
+      <c r="D31" s="61" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="15">
         <v>44627</v>
       </c>
-      <c r="F31" s="68" t="s">
+      <c r="F31" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
       <c r="I31" s="44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>26</v>
       </c>
       <c r="B32" s="34">
         <v>22</v>
       </c>
-      <c r="D32" s="93"/>
+      <c r="D32" s="61"/>
       <c r="E32" s="15">
         <v>44634</v>
       </c>
-      <c r="F32" s="69" t="s">
+      <c r="F32" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
       <c r="I32" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>27</v>
       </c>
       <c r="B33" s="34">
         <v>23</v>
       </c>
-      <c r="D33" s="93"/>
+      <c r="D33" s="61"/>
       <c r="E33" s="37">
         <v>44641</v>
       </c>
-      <c r="F33" s="70" t="s">
+      <c r="F33" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
       <c r="I33" s="23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24">
         <v>28</v>
       </c>
       <c r="B34" s="34">
         <v>24</v>
       </c>
-      <c r="D34" s="94"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="26">
         <v>44648</v>
       </c>
-      <c r="F34" s="71" t="s">
+      <c r="F34" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
       <c r="I34" s="49" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>29</v>
       </c>
       <c r="B35" s="34"/>
-      <c r="D35" s="115" t="s">
+      <c r="D35" s="58" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="25">
@@ -3111,247 +3127,247 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A36" s="24">
         <v>30</v>
       </c>
       <c r="B36" s="34"/>
-      <c r="D36" s="116"/>
+      <c r="D36" s="59"/>
       <c r="E36" s="16">
         <v>44662</v>
       </c>
-      <c r="F36" s="72"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="74"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="112"/>
+      <c r="H36" s="113"/>
       <c r="I36" s="51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>31</v>
       </c>
       <c r="B37" s="34">
         <v>25</v>
       </c>
-      <c r="D37" s="116"/>
+      <c r="D37" s="59"/>
       <c r="E37" s="15">
         <v>44669</v>
       </c>
-      <c r="F37" s="75" t="s">
+      <c r="F37" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="76"/>
-      <c r="H37" s="77"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="116"/>
       <c r="I37" s="44" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24">
         <v>32</v>
       </c>
       <c r="B38" s="34">
         <v>26</v>
       </c>
-      <c r="D38" s="117"/>
+      <c r="D38" s="60"/>
       <c r="E38" s="45">
         <v>44676</v>
       </c>
-      <c r="F38" s="78" t="s">
+      <c r="F38" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="79"/>
-      <c r="H38" s="80"/>
+      <c r="G38" s="118"/>
+      <c r="H38" s="119"/>
       <c r="I38" s="43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <v>33</v>
       </c>
       <c r="B39" s="34">
         <v>27</v>
       </c>
-      <c r="D39" s="115" t="s">
+      <c r="D39" s="58" t="s">
         <v>28</v>
       </c>
       <c r="E39" s="27">
         <v>44683</v>
       </c>
-      <c r="F39" s="81" t="s">
+      <c r="F39" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="82"/>
-      <c r="H39" s="83"/>
+      <c r="G39" s="121"/>
+      <c r="H39" s="122"/>
       <c r="I39" s="44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>34</v>
       </c>
       <c r="B40" s="34">
         <v>28</v>
       </c>
-      <c r="D40" s="116"/>
+      <c r="D40" s="59"/>
       <c r="E40" s="15">
         <v>44690</v>
       </c>
-      <c r="F40" s="81" t="s">
+      <c r="F40" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="82"/>
-      <c r="H40" s="83"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="122"/>
       <c r="I40" s="44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>35</v>
       </c>
       <c r="B41" s="34">
         <v>29</v>
       </c>
-      <c r="D41" s="116"/>
+      <c r="D41" s="59"/>
       <c r="E41" s="15">
         <v>44697</v>
       </c>
-      <c r="F41" s="84" t="s">
+      <c r="F41" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="85"/>
-      <c r="H41" s="86"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="73"/>
       <c r="I41" s="44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>36</v>
       </c>
       <c r="B42" s="34">
         <v>30</v>
       </c>
-      <c r="D42" s="116"/>
+      <c r="D42" s="59"/>
       <c r="E42" s="27">
         <v>44704</v>
       </c>
-      <c r="F42" s="84" t="s">
+      <c r="F42" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="85"/>
-      <c r="H42" s="86"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="73"/>
       <c r="I42" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="24">
         <v>37</v>
       </c>
       <c r="B43" s="34">
         <v>31</v>
       </c>
-      <c r="D43" s="117"/>
+      <c r="D43" s="60"/>
       <c r="E43" s="26">
         <v>44711</v>
       </c>
-      <c r="F43" s="78" t="s">
+      <c r="F43" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="79"/>
-      <c r="H43" s="80"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="119"/>
       <c r="I43" s="43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>38</v>
       </c>
       <c r="B44" s="34">
         <v>32</v>
       </c>
-      <c r="D44" s="115" t="s">
+      <c r="D44" s="58" t="s">
         <v>29</v>
       </c>
       <c r="E44" s="38">
         <v>44718</v>
       </c>
-      <c r="F44" s="87"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="87"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
       <c r="I44" s="44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
         <v>39</v>
       </c>
       <c r="B45" s="34">
         <v>33</v>
       </c>
-      <c r="D45" s="116"/>
+      <c r="D45" s="59"/>
       <c r="E45" s="27">
         <v>44725</v>
       </c>
-      <c r="F45" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
+      <c r="F45" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
       <c r="I45" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <v>40</v>
       </c>
       <c r="B46" s="34">
         <v>34</v>
       </c>
-      <c r="D46" s="116"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="27">
         <v>44732</v>
       </c>
-      <c r="F46" s="58" t="s">
+      <c r="F46" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="24">
         <v>41</v>
       </c>
       <c r="B47" s="34">
         <v>35</v>
       </c>
-      <c r="D47" s="117"/>
+      <c r="D47" s="60"/>
       <c r="E47" s="26">
         <v>44739</v>
       </c>
-      <c r="F47" s="59"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="61"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="68"/>
       <c r="I47" s="43"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F48" s="105"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="105"/>
       <c r="I48" s="46"/>
     </row>
-    <row r="49" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="F49" s="47"/>
       <c r="G49" s="47"/>
       <c r="H49" s="47"/>
@@ -3359,13 +3375,38 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F15:H15"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="D39:D43"/>
     <mergeCell ref="F20:H20"/>
@@ -3381,41 +3422,16 @@
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F21:H21"/>
     <mergeCell ref="F46:H46"/>
     <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F45:H45"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
